--- a/net18/validation_data/Scenario5.xlsx
+++ b/net18/validation_data/Scenario5.xlsx
@@ -466,7 +466,7 @@
         <v>1.006058434843117</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9837116599082947</v>
+        <v>1.003542304039001</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>1.005022377960981</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9926936030387878</v>
+        <v>1.002823948860168</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
         <v>1.004145723347419</v>
       </c>
       <c r="G4" t="n">
-        <v>1.006094217300415</v>
+        <v>1.000772953033447</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>1.004144669026751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9844388365745544</v>
+        <v>1.009588599205017</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>1.004431839810833</v>
       </c>
       <c r="G6" t="n">
-        <v>1.00395667552948</v>
+        <v>1.011250615119934</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>1.004462525020092</v>
       </c>
       <c r="G7" t="n">
-        <v>1.004669904708862</v>
+        <v>1.000048756599426</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         <v>1.004602013970495</v>
       </c>
       <c r="G8" t="n">
-        <v>1.003726124763489</v>
+        <v>1.002289295196533</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +655,7 @@
         <v>1.004418428646416</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9959903955459595</v>
+        <v>1.000875473022461</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>1.004362003245719</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9962672591209412</v>
+        <v>1.002793312072754</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +709,7 @@
         <v>1.004361981006138</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9982664585113525</v>
+        <v>1.004420518875122</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +736,7 @@
         <v>1.004536698481949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9917673468589783</v>
+        <v>0.9982147812843323</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +763,7 @@
         <v>1.004502662363525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9885537624359131</v>
+        <v>0.9986172914505005</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +790,7 @@
         <v>1.008755637235153</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010758638381958</v>
+        <v>1.004990696907043</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +817,7 @@
         <v>1.008954495852279</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9956651329994202</v>
+        <v>1.008272647857666</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +844,7 @@
         <v>1.003981845856195</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9975955486297607</v>
+        <v>1.007127642631531</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>1.003910362904503</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9851731657981873</v>
+        <v>0.9997249841690063</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +898,7 @@
         <v>1.003867839322292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9975405931472778</v>
+        <v>1.000653862953186</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>1.003841792257245</v>
       </c>
       <c r="G19" t="n">
-        <v>1.006079912185669</v>
+        <v>1.004794001579285</v>
       </c>
     </row>
     <row r="20">
@@ -1660,7 +1660,7 @@
         <v>1.005655695990181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9835686683654785</v>
+        <v>1.002911329269409</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1687,7 @@
         <v>1.004624244801152</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9922229051589966</v>
+        <v>1.002636551856995</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1714,7 @@
         <v>1.003744153204324</v>
       </c>
       <c r="G4" t="n">
-        <v>1.005803108215332</v>
+        <v>1.000641822814941</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1741,7 @@
         <v>1.003743049500453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9836103916168213</v>
+        <v>1.009082317352295</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1768,7 @@
         <v>1.004029337537967</v>
       </c>
       <c r="G6" t="n">
-        <v>1.003916382789612</v>
+        <v>1.010901570320129</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +1795,7 @@
         <v>1.004059788228345</v>
       </c>
       <c r="G7" t="n">
-        <v>1.003982543945312</v>
+        <v>0.9995949268341064</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +1822,7 @@
         <v>1.004198758366459</v>
       </c>
       <c r="G8" t="n">
-        <v>1.003432750701904</v>
+        <v>1.001675724983215</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +1849,7 @@
         <v>1.004015445525285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9956265091896057</v>
+        <v>1.000414371490479</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +1876,7 @@
         <v>1.00395869355556</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9958879351615906</v>
+        <v>1.002419471740723</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1903,7 @@
         <v>1.003958620787382</v>
       </c>
       <c r="G11" t="n">
-        <v>0.997915506362915</v>
+        <v>1.004103422164917</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +1930,7 @@
         <v>1.00413386573097</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9915090799331665</v>
+        <v>0.9981140494346619</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +1957,7 @@
         <v>1.004100029956086</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9881003499031067</v>
+        <v>0.997689962387085</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         <v>1.00835220001738</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010738134384155</v>
+        <v>1.004761219024658</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2011,7 @@
         <v>1.008551228831176</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9950466156005859</v>
+        <v>1.008124828338623</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2038,7 @@
         <v>1.003579482957996</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9973182082176208</v>
+        <v>1.006569266319275</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2065,7 @@
         <v>1.003507673574712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9851071834564209</v>
+        <v>0.9994498491287231</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2092,7 @@
         <v>1.00346486858233</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9969816207885742</v>
+        <v>1.000728845596313</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2119,7 @@
         <v>1.003438823772875</v>
       </c>
       <c r="G19" t="n">
-        <v>1.005530834197998</v>
+        <v>1.004410862922668</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2854,7 @@
         <v>1.005164393864519</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9828948378562927</v>
+        <v>1.002438187599182</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +2881,7 @@
         <v>1.004116739048786</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9917548298835754</v>
+        <v>1.001886963844299</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +2908,7 @@
         <v>1.003227619622709</v>
       </c>
       <c r="G4" t="n">
-        <v>1.005259394645691</v>
+        <v>0.9998671412467957</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +2935,7 @@
         <v>1.003226505787774</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9836413860321045</v>
+        <v>1.008527159690857</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +2962,7 @@
         <v>1.003511958679765</v>
       </c>
       <c r="G6" t="n">
-        <v>1.003291368484497</v>
+        <v>1.010313749313354</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +2989,7 @@
         <v>1.003542486612951</v>
       </c>
       <c r="G7" t="n">
-        <v>1.003925085067749</v>
+        <v>0.9992058277130127</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3016,7 @@
         <v>1.003681297145631</v>
       </c>
       <c r="G8" t="n">
-        <v>1.002928137779236</v>
+        <v>1.001111388206482</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3043,7 @@
         <v>1.003498681818515</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9953065514564514</v>
+        <v>0.9999788403511047</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3070,7 @@
         <v>1.003442634855123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9956051707267761</v>
+        <v>1.001765131950378</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3097,7 @@
         <v>1.003442607148328</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9974539875984192</v>
+        <v>1.003379106521606</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3124,7 @@
         <v>1.003617345751573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9909293055534363</v>
+        <v>0.9974510073661804</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3151,7 @@
         <v>1.003583465498029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9876545667648315</v>
+        <v>0.9976387619972229</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3178,7 @@
         <v>1.007825895717806</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010109901428223</v>
+        <v>1.00419819355011</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3205,7 @@
         <v>1.008024833808505</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9946919679641724</v>
+        <v>1.007380127906799</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3232,7 @@
         <v>1.003063119569497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.996468722820282</v>
+        <v>1.006126046180725</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3259,7 @@
         <v>1.002991389091964</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9843315482139587</v>
+        <v>0.9987671971321106</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3286,7 @@
         <v>1.002948469245211</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9966943264007568</v>
+        <v>0.9996189475059509</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3313,7 @@
         <v>1.002922679013494</v>
       </c>
       <c r="G19" t="n">
-        <v>1.005204439163208</v>
+        <v>1.003853678703308</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario5.xlsx
+++ b/net18/validation_data/Scenario5.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -441,6 +441,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,7 +481,16 @@
         <v>1.006058434843117</v>
       </c>
       <c r="G2" t="n">
-        <v>1.003542304039001</v>
+        <v>1.009679436683655</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.00510585308075</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.004770611153234</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.004751645028591</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +517,16 @@
         <v>1.005022377960981</v>
       </c>
       <c r="G3" t="n">
-        <v>1.002823948860168</v>
+        <v>1.006496548652649</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.005297422409058</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.004581883632716</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.004619345068932</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +553,16 @@
         <v>1.004145723347419</v>
       </c>
       <c r="G4" t="n">
-        <v>1.000772953033447</v>
+        <v>1.007214665412903</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.00562310218811</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.004483717599561</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.00461733341217</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +589,16 @@
         <v>1.004144669026751</v>
       </c>
       <c r="G5" t="n">
-        <v>1.009588599205017</v>
+        <v>1.005931735038757</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.005711674690247</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.004488741128931</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.004608931019902</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +625,16 @@
         <v>1.004431839810833</v>
       </c>
       <c r="G6" t="n">
-        <v>1.011250615119934</v>
+        <v>1.006258487701416</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.005583643913269</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.004502521130789</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.004726594313979</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +661,16 @@
         <v>1.004462525020092</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000048756599426</v>
+        <v>1.005318164825439</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.00560200214386</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.004509439153644</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.004624389111996</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +697,16 @@
         <v>1.004602013970495</v>
       </c>
       <c r="G8" t="n">
-        <v>1.002289295196533</v>
+        <v>1.005589842796326</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.005555033683777</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.004532997790389</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.004691377282143</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +733,16 @@
         <v>1.004418428646416</v>
       </c>
       <c r="G9" t="n">
-        <v>1.000875473022461</v>
+        <v>1.006085872650146</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.005752563476562</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.004500216475008</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.004654239863157</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +769,16 @@
         <v>1.004362003245719</v>
       </c>
       <c r="G10" t="n">
-        <v>1.002793312072754</v>
+        <v>1.006041049957275</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.005478382110596</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.004495110606235</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.004611391574144</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +805,16 @@
         <v>1.004361981006138</v>
       </c>
       <c r="G11" t="n">
-        <v>1.004420518875122</v>
+        <v>1.005326509475708</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.005604267120361</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.004498267014363</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.004671387374401</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +841,16 @@
         <v>1.004536698481949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9982147812843323</v>
+        <v>1.006277441978455</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.005635619163513</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.00449714826917</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.004676602780819</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +877,16 @@
         <v>1.004502662363525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9986172914505005</v>
+        <v>1.005270719528198</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.005754709243774</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.004501496280567</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.004674412310123</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +913,16 @@
         <v>1.008755637235153</v>
       </c>
       <c r="G14" t="n">
-        <v>1.004990696907043</v>
+        <v>1.007476329803467</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.005756139755249</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.004945497596367</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.005081418901682</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +949,16 @@
         <v>1.008954495852279</v>
       </c>
       <c r="G15" t="n">
-        <v>1.008272647857666</v>
+        <v>1.008578777313232</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.00580620765686</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.004984468298129</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.005116736516356</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +985,16 @@
         <v>1.003981845856195</v>
       </c>
       <c r="G16" t="n">
-        <v>1.007127642631531</v>
+        <v>1.006074070930481</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.00568163394928</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.004470444641429</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.004504963755608</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +1021,16 @@
         <v>1.003910362904503</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9997249841690063</v>
+        <v>1.006881713867188</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.005273342132568</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.00445591297171</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.004562072455883</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +1057,16 @@
         <v>1.003867839322292</v>
       </c>
       <c r="G18" t="n">
-        <v>1.000653862953186</v>
+        <v>1.006578922271729</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.005491137504578</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.004466178016695</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.004518155008554</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +1093,16 @@
         <v>1.003841792257245</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004794001579285</v>
+        <v>1.005913376808167</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.005580186843872</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.004458273846915</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.004541635513306</v>
       </c>
     </row>
     <row r="20">
@@ -1592,7 +1769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -1635,6 +1812,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1660,7 +1852,16 @@
         <v>1.005655695990181</v>
       </c>
       <c r="G2" t="n">
-        <v>1.002911329269409</v>
+        <v>1.009125113487244</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.004814743995667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.00450511169073</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.004428070038557</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1888,16 @@
         <v>1.004624244801152</v>
       </c>
       <c r="G3" t="n">
-        <v>1.002636551856995</v>
+        <v>1.005916357040405</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.004989504814148</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.004309932200186</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.004281938076019</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1924,16 @@
         <v>1.003744153204324</v>
       </c>
       <c r="G4" t="n">
-        <v>1.000641822814941</v>
+        <v>1.006638288497925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.005275726318359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.004208979579264</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.004218460991979</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1960,16 @@
         <v>1.003743049500453</v>
       </c>
       <c r="G5" t="n">
-        <v>1.009082317352295</v>
+        <v>1.005359768867493</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.005291700363159</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.004212297416105</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.004263574257493</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1996,16 @@
         <v>1.004029337537967</v>
       </c>
       <c r="G6" t="n">
-        <v>1.010901570320129</v>
+        <v>1.005679607391357</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.005322217941284</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.00422434839052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.004280099645257</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +2032,16 @@
         <v>1.004059788228345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9995949268341064</v>
+        <v>1.004735827445984</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.005330204963684</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.004229301495874</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.004208140075207</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +2068,16 @@
         <v>1.004198758366459</v>
       </c>
       <c r="G8" t="n">
-        <v>1.001675724983215</v>
+        <v>1.005009174346924</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.005211234092712</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.004251923094811</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.004281081259251</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +2104,16 @@
         <v>1.004015445525285</v>
       </c>
       <c r="G9" t="n">
-        <v>1.000414371490479</v>
+        <v>1.005501270294189</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.005569696426392</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.00422389712494</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.004212422296405</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +2140,16 @@
         <v>1.00395869355556</v>
       </c>
       <c r="G10" t="n">
-        <v>1.002419471740723</v>
+        <v>1.005453109741211</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.005248785018921</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.00422001624875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.004217252135277</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +2176,16 @@
         <v>1.003958620787382</v>
       </c>
       <c r="G11" t="n">
-        <v>1.004103422164917</v>
+        <v>1.004754185676575</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.005278944969177</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.004221350352176</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.004219852387905</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +2212,16 @@
         <v>1.00413386573097</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9981140494346619</v>
+        <v>1.005692839622498</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.005064725875854</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.004221859468595</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.004275996237993</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +2248,16 @@
         <v>1.004100029956086</v>
       </c>
       <c r="G13" t="n">
-        <v>0.997689962387085</v>
+        <v>1.004692077636719</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.005222320556641</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.004223586657476</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.004249654710293</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +2284,16 @@
         <v>1.00835220001738</v>
       </c>
       <c r="G14" t="n">
-        <v>1.004761219024658</v>
+        <v>1.006918430328369</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.005228757858276</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.004665910024696</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.004664091393352</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2320,16 @@
         <v>1.008551228831176</v>
       </c>
       <c r="G15" t="n">
-        <v>1.008124828338623</v>
+        <v>1.008012413978577</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.005389928817749</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.00470361998304</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.004736255854368</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2356,16 @@
         <v>1.003579482957996</v>
       </c>
       <c r="G16" t="n">
-        <v>1.006569266319275</v>
+        <v>1.005489110946655</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.005396962165833</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.004192837746085</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.00415002182126</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2392,16 @@
         <v>1.003507673574712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9994498491287231</v>
+        <v>1.006304740905762</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.005101203918457</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.004180467405061</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.004160301759839</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2428,16 @@
         <v>1.00346486858233</v>
       </c>
       <c r="G18" t="n">
-        <v>1.000728845596313</v>
+        <v>1.005998849868774</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.005227208137512</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.004192553226225</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.004087103530765</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2464,16 @@
         <v>1.003438823772875</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004410862922668</v>
+        <v>1.005337834358215</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.005357384681702</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.004182976158423</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.004177508875728</v>
       </c>
     </row>
     <row r="20">
@@ -2786,7 +3140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -2829,6 +3183,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2854,7 +3223,16 @@
         <v>1.005164393864519</v>
       </c>
       <c r="G2" t="n">
-        <v>1.002438187599182</v>
+        <v>1.008720874786377</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.004342555999756</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.003945836665186</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.003898121416569</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +3259,16 @@
         <v>1.004116739048786</v>
       </c>
       <c r="G3" t="n">
-        <v>1.001886963844299</v>
+        <v>1.005470156669617</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.004465222358704</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.003748131523022</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.003736581653357</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +3295,16 @@
         <v>1.003227619622709</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9998671412467957</v>
+        <v>1.006206512451172</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.004727840423584</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.003648794758071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.003718765452504</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +3331,16 @@
         <v>1.003226505787774</v>
       </c>
       <c r="G5" t="n">
-        <v>1.008527159690857</v>
+        <v>1.004922747612</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.004831075668335</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.003653607168033</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.003724893555045</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +3367,16 @@
         <v>1.003511958679765</v>
       </c>
       <c r="G6" t="n">
-        <v>1.010313749313354</v>
+        <v>1.005246162414551</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.00462794303894</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.003667160928748</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.003833997994661</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +3403,16 @@
         <v>1.003542486612951</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9992058277130127</v>
+        <v>1.00429904460907</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.004756331443787</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.003673384641523</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.003731317818165</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3439,16 @@
         <v>1.003681297145631</v>
       </c>
       <c r="G8" t="n">
-        <v>1.001111388206482</v>
+        <v>1.004573583602905</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.004528284072876</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.003697277007373</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.003785975277424</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3475,16 @@
         <v>1.003498681818515</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999788403511047</v>
+        <v>1.005067348480225</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.004844665527344</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.003665450876046</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.003746353089809</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3511,16 @@
         <v>1.003442634855123</v>
       </c>
       <c r="G10" t="n">
-        <v>1.001765131950378</v>
+        <v>1.005021691322327</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.004572510719299</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.003659583574602</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.003711769357324</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3547,16 @@
         <v>1.003442607148328</v>
       </c>
       <c r="G11" t="n">
-        <v>1.003379106521606</v>
+        <v>1.00432014465332</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.004711508750916</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.00366309137996</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.003777073696256</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3583,16 @@
         <v>1.003617345751573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9974510073661804</v>
+        <v>1.005262732505798</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.004650115966797</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.003662795665248</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.003793321549892</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3619,16 @@
         <v>1.003583465498029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9976387619972229</v>
+        <v>1.004256129264832</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.004838705062866</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.003667269187852</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.003780517727137</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3655,16 @@
         <v>1.007825895717806</v>
       </c>
       <c r="G14" t="n">
-        <v>1.00419819355011</v>
+        <v>1.006504654884338</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.004699230194092</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.004115515334411</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.004230143502355</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3691,16 @@
         <v>1.008024833808505</v>
       </c>
       <c r="G15" t="n">
-        <v>1.007380127906799</v>
+        <v>1.007602095603943</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.004793763160706</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.004153965173241</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.004271740093827</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3727,16 @@
         <v>1.003063119569497</v>
       </c>
       <c r="G16" t="n">
-        <v>1.006126046180725</v>
+        <v>1.00505268573761</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.004797101020813</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.003634854582222</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.003644006326795</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3763,16 @@
         <v>1.002991389091964</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9987671971321106</v>
+        <v>1.005873560905457</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.004432559013367</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.003620911222471</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.0036591719836</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3799,16 @@
         <v>1.002948469245211</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9996189475059509</v>
+        <v>1.005565166473389</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.004525423049927</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.003631593950336</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.003646986559033</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3835,16 @@
         <v>1.002922679013494</v>
       </c>
       <c r="G19" t="n">
-        <v>1.003853678703308</v>
+        <v>1.004901528358459</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.004693269729614</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.003622109830936</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.003694919869304</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario5.xlsx
+++ b/net18/validation_data/Scenario5.xlsx
@@ -481,7 +481,7 @@
         <v>1.006058434843117</v>
       </c>
       <c r="G2" t="n">
-        <v>1.009679436683655</v>
+        <v>1.00838303565979</v>
       </c>
       <c r="H2" t="n">
         <v>1.00510585308075</v>
@@ -517,7 +517,7 @@
         <v>1.005022377960981</v>
       </c>
       <c r="G3" t="n">
-        <v>1.006496548652649</v>
+        <v>1.009368538856506</v>
       </c>
       <c r="H3" t="n">
         <v>1.005297422409058</v>
@@ -553,7 +553,7 @@
         <v>1.004145723347419</v>
       </c>
       <c r="G4" t="n">
-        <v>1.007214665412903</v>
+        <v>1.009460926055908</v>
       </c>
       <c r="H4" t="n">
         <v>1.00562310218811</v>
@@ -589,7 +589,7 @@
         <v>1.004144669026751</v>
       </c>
       <c r="G5" t="n">
-        <v>1.005931735038757</v>
+        <v>1.009382367134094</v>
       </c>
       <c r="H5" t="n">
         <v>1.005711674690247</v>
@@ -625,7 +625,7 @@
         <v>1.004431839810833</v>
       </c>
       <c r="G6" t="n">
-        <v>1.006258487701416</v>
+        <v>1.009435057640076</v>
       </c>
       <c r="H6" t="n">
         <v>1.005583643913269</v>
@@ -661,7 +661,7 @@
         <v>1.004462525020092</v>
       </c>
       <c r="G7" t="n">
-        <v>1.005318164825439</v>
+        <v>1.009981989860535</v>
       </c>
       <c r="H7" t="n">
         <v>1.00560200214386</v>
@@ -697,7 +697,7 @@
         <v>1.004602013970495</v>
       </c>
       <c r="G8" t="n">
-        <v>1.005589842796326</v>
+        <v>1.009440183639526</v>
       </c>
       <c r="H8" t="n">
         <v>1.005555033683777</v>
@@ -733,7 +733,7 @@
         <v>1.004418428646416</v>
       </c>
       <c r="G9" t="n">
-        <v>1.006085872650146</v>
+        <v>1.009074449539185</v>
       </c>
       <c r="H9" t="n">
         <v>1.005752563476562</v>
@@ -769,7 +769,7 @@
         <v>1.004362003245719</v>
       </c>
       <c r="G10" t="n">
-        <v>1.006041049957275</v>
+        <v>1.010130286216736</v>
       </c>
       <c r="H10" t="n">
         <v>1.005478382110596</v>
@@ -805,7 +805,7 @@
         <v>1.004361981006138</v>
       </c>
       <c r="G11" t="n">
-        <v>1.005326509475708</v>
+        <v>1.009469151496887</v>
       </c>
       <c r="H11" t="n">
         <v>1.005604267120361</v>
@@ -841,7 +841,7 @@
         <v>1.004536698481949</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006277441978455</v>
+        <v>1.009586811065674</v>
       </c>
       <c r="H12" t="n">
         <v>1.005635619163513</v>
@@ -877,7 +877,7 @@
         <v>1.004502662363525</v>
       </c>
       <c r="G13" t="n">
-        <v>1.005270719528198</v>
+        <v>1.009106516838074</v>
       </c>
       <c r="H13" t="n">
         <v>1.005754709243774</v>
@@ -913,7 +913,7 @@
         <v>1.008755637235153</v>
       </c>
       <c r="G14" t="n">
-        <v>1.007476329803467</v>
+        <v>1.010128974914551</v>
       </c>
       <c r="H14" t="n">
         <v>1.005756139755249</v>
@@ -949,7 +949,7 @@
         <v>1.008954495852279</v>
       </c>
       <c r="G15" t="n">
-        <v>1.008578777313232</v>
+        <v>1.010016322135925</v>
       </c>
       <c r="H15" t="n">
         <v>1.00580620765686</v>
@@ -985,7 +985,7 @@
         <v>1.003981845856195</v>
       </c>
       <c r="G16" t="n">
-        <v>1.006074070930481</v>
+        <v>1.009196162223816</v>
       </c>
       <c r="H16" t="n">
         <v>1.00568163394928</v>
@@ -1021,7 +1021,7 @@
         <v>1.003910362904503</v>
       </c>
       <c r="G17" t="n">
-        <v>1.006881713867188</v>
+        <v>1.009626984596252</v>
       </c>
       <c r="H17" t="n">
         <v>1.005273342132568</v>
@@ -1057,7 +1057,7 @@
         <v>1.003867839322292</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006578922271729</v>
+        <v>1.009627461433411</v>
       </c>
       <c r="H18" t="n">
         <v>1.005491137504578</v>
@@ -1093,7 +1093,7 @@
         <v>1.003841792257245</v>
       </c>
       <c r="G19" t="n">
-        <v>1.005913376808167</v>
+        <v>1.009157180786133</v>
       </c>
       <c r="H19" t="n">
         <v>1.005580186843872</v>
@@ -1852,7 +1852,7 @@
         <v>1.005655695990181</v>
       </c>
       <c r="G2" t="n">
-        <v>1.009125113487244</v>
+        <v>1.008056282997131</v>
       </c>
       <c r="H2" t="n">
         <v>1.004814743995667</v>
@@ -1888,7 +1888,7 @@
         <v>1.004624244801152</v>
       </c>
       <c r="G3" t="n">
-        <v>1.005916357040405</v>
+        <v>1.009045124053955</v>
       </c>
       <c r="H3" t="n">
         <v>1.004989504814148</v>
@@ -1924,7 +1924,7 @@
         <v>1.003744153204324</v>
       </c>
       <c r="G4" t="n">
-        <v>1.006638288497925</v>
+        <v>1.009127259254456</v>
       </c>
       <c r="H4" t="n">
         <v>1.005275726318359</v>
@@ -1960,7 +1960,7 @@
         <v>1.003743049500453</v>
       </c>
       <c r="G5" t="n">
-        <v>1.005359768867493</v>
+        <v>1.009082436561584</v>
       </c>
       <c r="H5" t="n">
         <v>1.005291700363159</v>
@@ -1996,7 +1996,7 @@
         <v>1.004029337537967</v>
       </c>
       <c r="G6" t="n">
-        <v>1.005679607391357</v>
+        <v>1.009117245674133</v>
       </c>
       <c r="H6" t="n">
         <v>1.005322217941284</v>
@@ -2032,7 +2032,7 @@
         <v>1.004059788228345</v>
       </c>
       <c r="G7" t="n">
-        <v>1.004735827445984</v>
+        <v>1.009652376174927</v>
       </c>
       <c r="H7" t="n">
         <v>1.005330204963684</v>
@@ -2068,7 +2068,7 @@
         <v>1.004198758366459</v>
       </c>
       <c r="G8" t="n">
-        <v>1.005009174346924</v>
+        <v>1.009142637252808</v>
       </c>
       <c r="H8" t="n">
         <v>1.005211234092712</v>
@@ -2104,7 +2104,7 @@
         <v>1.004015445525285</v>
       </c>
       <c r="G9" t="n">
-        <v>1.005501270294189</v>
+        <v>1.008756160736084</v>
       </c>
       <c r="H9" t="n">
         <v>1.005569696426392</v>
@@ -2140,7 +2140,7 @@
         <v>1.00395869355556</v>
       </c>
       <c r="G10" t="n">
-        <v>1.005453109741211</v>
+        <v>1.009792685508728</v>
       </c>
       <c r="H10" t="n">
         <v>1.005248785018921</v>
@@ -2176,7 +2176,7 @@
         <v>1.003958620787382</v>
       </c>
       <c r="G11" t="n">
-        <v>1.004754185676575</v>
+        <v>1.009133577346802</v>
       </c>
       <c r="H11" t="n">
         <v>1.005278944969177</v>
@@ -2212,7 +2212,7 @@
         <v>1.00413386573097</v>
       </c>
       <c r="G12" t="n">
-        <v>1.005692839622498</v>
+        <v>1.009271502494812</v>
       </c>
       <c r="H12" t="n">
         <v>1.005064725875854</v>
@@ -2248,7 +2248,7 @@
         <v>1.004100029956086</v>
       </c>
       <c r="G13" t="n">
-        <v>1.004692077636719</v>
+        <v>1.008792281150818</v>
       </c>
       <c r="H13" t="n">
         <v>1.005222320556641</v>
@@ -2284,7 +2284,7 @@
         <v>1.00835220001738</v>
       </c>
       <c r="G14" t="n">
-        <v>1.006918430328369</v>
+        <v>1.00978696346283</v>
       </c>
       <c r="H14" t="n">
         <v>1.005228757858276</v>
@@ -2320,7 +2320,7 @@
         <v>1.008551228831176</v>
       </c>
       <c r="G15" t="n">
-        <v>1.008012413978577</v>
+        <v>1.00967276096344</v>
       </c>
       <c r="H15" t="n">
         <v>1.005389928817749</v>
@@ -2356,7 +2356,7 @@
         <v>1.003579482957996</v>
       </c>
       <c r="G16" t="n">
-        <v>1.005489110946655</v>
+        <v>1.00889265537262</v>
       </c>
       <c r="H16" t="n">
         <v>1.005396962165833</v>
@@ -2392,7 +2392,7 @@
         <v>1.003507673574712</v>
       </c>
       <c r="G17" t="n">
-        <v>1.006304740905762</v>
+        <v>1.009291529655457</v>
       </c>
       <c r="H17" t="n">
         <v>1.005101203918457</v>
@@ -2428,7 +2428,7 @@
         <v>1.00346486858233</v>
       </c>
       <c r="G18" t="n">
-        <v>1.005998849868774</v>
+        <v>1.009299278259277</v>
       </c>
       <c r="H18" t="n">
         <v>1.005227208137512</v>
@@ -2464,7 +2464,7 @@
         <v>1.003438823772875</v>
       </c>
       <c r="G19" t="n">
-        <v>1.005337834358215</v>
+        <v>1.008849143981934</v>
       </c>
       <c r="H19" t="n">
         <v>1.005357384681702</v>
@@ -3223,7 +3223,7 @@
         <v>1.005164393864519</v>
       </c>
       <c r="G2" t="n">
-        <v>1.008720874786377</v>
+        <v>1.007480144500732</v>
       </c>
       <c r="H2" t="n">
         <v>1.004342555999756</v>
@@ -3259,7 +3259,7 @@
         <v>1.004116739048786</v>
       </c>
       <c r="G3" t="n">
-        <v>1.005470156669617</v>
+        <v>1.008434772491455</v>
       </c>
       <c r="H3" t="n">
         <v>1.004465222358704</v>
@@ -3295,7 +3295,7 @@
         <v>1.003227619622709</v>
       </c>
       <c r="G4" t="n">
-        <v>1.006206512451172</v>
+        <v>1.00853443145752</v>
       </c>
       <c r="H4" t="n">
         <v>1.004727840423584</v>
@@ -3331,7 +3331,7 @@
         <v>1.003226505787774</v>
       </c>
       <c r="G5" t="n">
-        <v>1.004922747612</v>
+        <v>1.008468627929688</v>
       </c>
       <c r="H5" t="n">
         <v>1.004831075668335</v>
@@ -3367,7 +3367,7 @@
         <v>1.003511958679765</v>
       </c>
       <c r="G6" t="n">
-        <v>1.005246162414551</v>
+        <v>1.008525252342224</v>
       </c>
       <c r="H6" t="n">
         <v>1.00462794303894</v>
@@ -3403,7 +3403,7 @@
         <v>1.003542486612951</v>
       </c>
       <c r="G7" t="n">
-        <v>1.00429904460907</v>
+        <v>1.009068727493286</v>
       </c>
       <c r="H7" t="n">
         <v>1.004756331443787</v>
@@ -3439,7 +3439,7 @@
         <v>1.003681297145631</v>
       </c>
       <c r="G8" t="n">
-        <v>1.004573583602905</v>
+        <v>1.008538126945496</v>
       </c>
       <c r="H8" t="n">
         <v>1.004528284072876</v>
@@ -3475,7 +3475,7 @@
         <v>1.003498681818515</v>
       </c>
       <c r="G9" t="n">
-        <v>1.005067348480225</v>
+        <v>1.008155345916748</v>
       </c>
       <c r="H9" t="n">
         <v>1.004844665527344</v>
@@ -3511,7 +3511,7 @@
         <v>1.003442634855123</v>
       </c>
       <c r="G10" t="n">
-        <v>1.005021691322327</v>
+        <v>1.009202837944031</v>
       </c>
       <c r="H10" t="n">
         <v>1.004572510719299</v>
@@ -3547,7 +3547,7 @@
         <v>1.003442607148328</v>
       </c>
       <c r="G11" t="n">
-        <v>1.00432014465332</v>
+        <v>1.008540749549866</v>
       </c>
       <c r="H11" t="n">
         <v>1.004711508750916</v>
@@ -3583,7 +3583,7 @@
         <v>1.003617345751573</v>
       </c>
       <c r="G12" t="n">
-        <v>1.005262732505798</v>
+        <v>1.008675932884216</v>
       </c>
       <c r="H12" t="n">
         <v>1.004650115966797</v>
@@ -3619,7 +3619,7 @@
         <v>1.003583465498029</v>
       </c>
       <c r="G13" t="n">
-        <v>1.004256129264832</v>
+        <v>1.00816547870636</v>
       </c>
       <c r="H13" t="n">
         <v>1.004838705062866</v>
@@ -3655,7 +3655,7 @@
         <v>1.007825895717806</v>
       </c>
       <c r="G14" t="n">
-        <v>1.006504654884338</v>
+        <v>1.009243607521057</v>
       </c>
       <c r="H14" t="n">
         <v>1.004699230194092</v>
@@ -3691,7 +3691,7 @@
         <v>1.008024833808505</v>
       </c>
       <c r="G15" t="n">
-        <v>1.007602095603943</v>
+        <v>1.009123802185059</v>
       </c>
       <c r="H15" t="n">
         <v>1.004793763160706</v>
@@ -3727,7 +3727,7 @@
         <v>1.003063119569497</v>
       </c>
       <c r="G16" t="n">
-        <v>1.00505268573761</v>
+        <v>1.008272290229797</v>
       </c>
       <c r="H16" t="n">
         <v>1.004797101020813</v>
@@ -3763,7 +3763,7 @@
         <v>1.002991389091964</v>
       </c>
       <c r="G17" t="n">
-        <v>1.005873560905457</v>
+        <v>1.008707284927368</v>
       </c>
       <c r="H17" t="n">
         <v>1.004432559013367</v>
@@ -3799,7 +3799,7 @@
         <v>1.002948469245211</v>
       </c>
       <c r="G18" t="n">
-        <v>1.005565166473389</v>
+        <v>1.008702158927917</v>
       </c>
       <c r="H18" t="n">
         <v>1.004525423049927</v>
@@ -3835,7 +3835,7 @@
         <v>1.002922679013494</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004901528358459</v>
+        <v>1.00824499130249</v>
       </c>
       <c r="H19" t="n">
         <v>1.004693269729614</v>
